--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H2">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N2">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q2">
-        <v>711.3684083575149</v>
+        <v>907.2473288748158</v>
       </c>
       <c r="R2">
-        <v>711.3684083575149</v>
+        <v>8165.225959873343</v>
       </c>
       <c r="S2">
-        <v>0.6477885977559285</v>
+        <v>0.5105717373036652</v>
       </c>
       <c r="T2">
-        <v>0.6477885977559285</v>
+        <v>0.5105717373036652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H3">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N3">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q3">
-        <v>157.1220714593439</v>
+        <v>201.3122611828749</v>
       </c>
       <c r="R3">
-        <v>157.1220714593439</v>
+        <v>1811.810350645875</v>
       </c>
       <c r="S3">
-        <v>0.1430790082204526</v>
+        <v>0.1132925362923302</v>
       </c>
       <c r="T3">
-        <v>0.1430790082204526</v>
+        <v>0.1132925362923302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H4">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N4">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q4">
-        <v>25.8881046474554</v>
+        <v>34.138995524941</v>
       </c>
       <c r="R4">
-        <v>25.8881046474554</v>
+        <v>307.2509597244689</v>
       </c>
       <c r="S4">
-        <v>0.02357430947327886</v>
+        <v>0.01921240845821908</v>
       </c>
       <c r="T4">
-        <v>0.02357430947327886</v>
+        <v>0.01921240845821908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H5">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N5">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q5">
-        <v>18.10576344089616</v>
+        <v>26.32568908009199</v>
       </c>
       <c r="R5">
-        <v>18.10576344089616</v>
+        <v>236.931201720828</v>
       </c>
       <c r="S5">
-        <v>0.01648752878660889</v>
+        <v>0.01481531262925696</v>
       </c>
       <c r="T5">
-        <v>0.01648752878660889</v>
+        <v>0.01481531262925696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H6">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I6">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J6">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N6">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O6">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P6">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q6">
-        <v>11.99213761349352</v>
+        <v>15.47560805095</v>
       </c>
       <c r="R6">
-        <v>11.99213761349352</v>
+        <v>139.28047245855</v>
       </c>
       <c r="S6">
-        <v>0.01092031908849811</v>
+        <v>0.008709210638518599</v>
       </c>
       <c r="T6">
-        <v>0.01092031908849811</v>
+        <v>0.008709210638518601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N7">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q7">
-        <v>133.6379566120084</v>
+        <v>185.5637226454115</v>
       </c>
       <c r="R7">
-        <v>133.6379566120084</v>
+        <v>1670.073503808704</v>
       </c>
       <c r="S7">
-        <v>0.1216938277039049</v>
+        <v>0.1044297285163748</v>
       </c>
       <c r="T7">
-        <v>0.1216938277039049</v>
+        <v>0.1044297285163748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N8">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q8">
-        <v>29.51701582721945</v>
+        <v>41.17537898468055</v>
       </c>
       <c r="R8">
-        <v>29.51701582721945</v>
+        <v>370.5784108621249</v>
       </c>
       <c r="S8">
-        <v>0.02687888029326772</v>
+        <v>0.02317227520351948</v>
       </c>
       <c r="T8">
-        <v>0.02687888029326772</v>
+        <v>0.02317227520351948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J9">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N9">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q9">
-        <v>4.863349798779731</v>
+        <v>6.982615319286555</v>
       </c>
       <c r="R9">
-        <v>4.863349798779731</v>
+        <v>62.843537873579</v>
       </c>
       <c r="S9">
-        <v>0.004428679302503942</v>
+        <v>0.003929607639531831</v>
       </c>
       <c r="T9">
-        <v>0.004428679302503942</v>
+        <v>0.003929607639531831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J10">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N10">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q10">
-        <v>3.401356035374758</v>
+        <v>5.384521630905333</v>
       </c>
       <c r="R10">
-        <v>3.401356035374758</v>
+        <v>48.46069467814799</v>
       </c>
       <c r="S10">
-        <v>0.003097353819396388</v>
+        <v>0.003030248176150695</v>
       </c>
       <c r="T10">
-        <v>0.003097353819396388</v>
+        <v>0.003030248176150695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.388977</v>
+      </c>
+      <c r="I11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N11">
+        <v>11.92465</v>
+      </c>
+      <c r="O11">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P11">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q11">
+        <v>3.165301620338889</v>
+      </c>
+      <c r="R11">
+        <v>28.48771458305</v>
+      </c>
+      <c r="S11">
+        <v>0.001781337344239818</v>
+      </c>
+      <c r="T11">
+        <v>0.001781337344239818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.188156</v>
+      </c>
+      <c r="H12">
+        <v>0.564468</v>
+      </c>
+      <c r="I12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>233.0249173333333</v>
+      </c>
+      <c r="N12">
+        <v>699.074752</v>
+      </c>
+      <c r="O12">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="P12">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="Q12">
+        <v>43.84503634577066</v>
+      </c>
+      <c r="R12">
+        <v>394.605327111936</v>
+      </c>
+      <c r="S12">
+        <v>0.02467467874164593</v>
+      </c>
+      <c r="T12">
+        <v>0.02467467874164593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.188156</v>
+      </c>
+      <c r="H13">
+        <v>0.564468</v>
+      </c>
+      <c r="I13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N13">
+        <v>155.120125</v>
+      </c>
+      <c r="O13">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="P13">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="Q13">
+        <v>9.728927413166666</v>
+      </c>
+      <c r="R13">
+        <v>87.5603467185</v>
+      </c>
+      <c r="S13">
+        <v>0.005475150174982945</v>
+      </c>
+      <c r="T13">
+        <v>0.005475150174982946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.188156</v>
+      </c>
+      <c r="H14">
+        <v>0.564468</v>
+      </c>
+      <c r="I14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.768542333333334</v>
+      </c>
+      <c r="N14">
+        <v>26.305627</v>
+      </c>
+      <c r="O14">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="P14">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="Q14">
+        <v>1.649853851270667</v>
+      </c>
+      <c r="R14">
+        <v>14.848684661436</v>
+      </c>
+      <c r="S14">
+        <v>0.0009284885392664952</v>
+      </c>
+      <c r="T14">
+        <v>0.0009284885392664951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.188156</v>
+      </c>
+      <c r="H15">
+        <v>0.564468</v>
+      </c>
+      <c r="I15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.761708</v>
+      </c>
+      <c r="N15">
+        <v>20.285124</v>
+      </c>
+      <c r="O15">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="P15">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="Q15">
+        <v>1.272255930448</v>
+      </c>
+      <c r="R15">
+        <v>11.450303374032</v>
+      </c>
+      <c r="S15">
+        <v>0.000715987691591602</v>
+      </c>
+      <c r="T15">
+        <v>0.000715987691591602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.188156</v>
+      </c>
+      <c r="H16">
+        <v>0.564468</v>
+      </c>
+      <c r="I16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.92465</v>
+      </c>
+      <c r="O16">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P16">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q16">
+        <v>0.7478981484666666</v>
+      </c>
+      <c r="R16">
+        <v>6.731083336199999</v>
+      </c>
+      <c r="S16">
+        <v>0.0004208947712884475</v>
+      </c>
+      <c r="T16">
+        <v>0.0004208947712884476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.923495</v>
+      </c>
+      <c r="I17">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J17">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>233.0249173333333</v>
+      </c>
+      <c r="N17">
+        <v>699.074752</v>
+      </c>
+      <c r="O17">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="P17">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="Q17">
+        <v>71.73244867758221</v>
+      </c>
+      <c r="R17">
+        <v>645.59203809824</v>
+      </c>
+      <c r="S17">
+        <v>0.0403688826373086</v>
+      </c>
+      <c r="T17">
+        <v>0.0403688826373086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="H11">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="I11">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="J11">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.92773688393973</v>
-      </c>
-      <c r="N11">
-        <v>3.92773688393973</v>
-      </c>
-      <c r="O11">
-        <v>0.01297181464465803</v>
-      </c>
-      <c r="P11">
-        <v>0.01297181464465803</v>
-      </c>
-      <c r="Q11">
-        <v>2.252847817318103</v>
-      </c>
-      <c r="R11">
-        <v>2.252847817318103</v>
-      </c>
-      <c r="S11">
-        <v>0.002051495556159921</v>
-      </c>
-      <c r="T11">
-        <v>0.002051495556159921</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.923495</v>
+      </c>
+      <c r="I18">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J18">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N18">
+        <v>155.120125</v>
+      </c>
+      <c r="O18">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="P18">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="Q18">
+        <v>15.91696220409722</v>
+      </c>
+      <c r="R18">
+        <v>143.252659836875</v>
+      </c>
+      <c r="S18">
+        <v>0.008957591592164438</v>
+      </c>
+      <c r="T18">
+        <v>0.008957591592164438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.923495</v>
+      </c>
+      <c r="I19">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J19">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.768542333333334</v>
+      </c>
+      <c r="N19">
+        <v>26.305627</v>
+      </c>
+      <c r="O19">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="P19">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="Q19">
+        <v>2.699235000707223</v>
+      </c>
+      <c r="R19">
+        <v>24.293115006365</v>
+      </c>
+      <c r="S19">
+        <v>0.001519048951525883</v>
+      </c>
+      <c r="T19">
+        <v>0.001519048951525882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.923495</v>
+      </c>
+      <c r="I20">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J20">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.761708</v>
+      </c>
+      <c r="N20">
+        <v>20.285124</v>
+      </c>
+      <c r="O20">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="P20">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="Q20">
+        <v>2.081467843153333</v>
+      </c>
+      <c r="R20">
+        <v>18.73321058838</v>
+      </c>
+      <c r="S20">
+        <v>0.001171388020660846</v>
+      </c>
+      <c r="T20">
+        <v>0.001171388020660846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.923495</v>
+      </c>
+      <c r="I21">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J21">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.92465</v>
+      </c>
+      <c r="O21">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P21">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q21">
+        <v>1.223594961305555</v>
+      </c>
+      <c r="R21">
+        <v>11.01235465175</v>
+      </c>
+      <c r="S21">
+        <v>0.000688602749511088</v>
+      </c>
+      <c r="T21">
+        <v>0.000688602749511088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.964804</v>
+      </c>
+      <c r="I22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>233.0249173333333</v>
+      </c>
+      <c r="N22">
+        <v>699.074752</v>
+      </c>
+      <c r="O22">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="P22">
+        <v>0.765932814443446</v>
+      </c>
+      <c r="Q22">
+        <v>152.6160965587342</v>
+      </c>
+      <c r="R22">
+        <v>1373.544869028608</v>
+      </c>
+      <c r="S22">
+        <v>0.08588778724445123</v>
+      </c>
+      <c r="T22">
+        <v>0.08588778724445123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.964804</v>
+      </c>
+      <c r="I23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.70670833333333</v>
+      </c>
+      <c r="N23">
+        <v>155.120125</v>
+      </c>
+      <c r="O23">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="P23">
+        <v>0.1699554927111273</v>
+      </c>
+      <c r="Q23">
+        <v>33.86451578672222</v>
+      </c>
+      <c r="R23">
+        <v>304.7806420805</v>
+      </c>
+      <c r="S23">
+        <v>0.01905793944813026</v>
+      </c>
+      <c r="T23">
+        <v>0.01905793944813026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.964804</v>
+      </c>
+      <c r="I24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.768542333333334</v>
+      </c>
+      <c r="N24">
+        <v>26.305627</v>
+      </c>
+      <c r="O24">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="P24">
+        <v>0.02882144272292286</v>
+      </c>
+      <c r="Q24">
+        <v>5.742822350234223</v>
+      </c>
+      <c r="R24">
+        <v>51.685401152108</v>
+      </c>
+      <c r="S24">
+        <v>0.003231889134379569</v>
+      </c>
+      <c r="T24">
+        <v>0.003231889134379569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.964804</v>
+      </c>
+      <c r="I25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.761708</v>
+      </c>
+      <c r="N25">
+        <v>20.285124</v>
+      </c>
+      <c r="O25">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="P25">
+        <v>0.02222515127631772</v>
+      </c>
+      <c r="Q25">
+        <v>4.428476975077333</v>
+      </c>
+      <c r="R25">
+        <v>39.856292775696</v>
+      </c>
+      <c r="S25">
+        <v>0.002492214758657614</v>
+      </c>
+      <c r="T25">
+        <v>0.002492214758657614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.964804</v>
+      </c>
+      <c r="I26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.974883333333333</v>
+      </c>
+      <c r="N26">
+        <v>11.92465</v>
+      </c>
+      <c r="O26">
+        <v>0.0130650988461861</v>
+      </c>
+      <c r="P26">
+        <v>0.01306509884618611</v>
+      </c>
+      <c r="Q26">
+        <v>2.603288890955556</v>
+      </c>
+      <c r="R26">
+        <v>23.4296000186</v>
+      </c>
+      <c r="S26">
+        <v>0.00146505334262815</v>
+      </c>
+      <c r="T26">
+        <v>0.001465053342628151</v>
       </c>
     </row>
   </sheetData>
